--- a/idcops/static/idcops/file/rack_import_template.xlsx
+++ b/idcops/static/idcops/file/rack_import_template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
-    <sheet name="在线设备导入格式" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="机柜信息导入格式" sheetId="1" r:id="rId1"/>
+    <sheet name="操作说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -53,7 +53,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">机柜区域
+          <t xml:space="preserve">机房区域
 到机房选项里面找
 没有则要手动先新建
 填写机房选项的 </t>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>机柜名称</t>
   </si>
@@ -136,7 +136,7 @@
     <t>机柜别名</t>
   </si>
   <si>
-    <t>所属区域</t>
+    <t>机房区域</t>
   </si>
   <si>
     <t>机柜类型</t>
@@ -190,7 +190,7 @@
     <t>tags</t>
   </si>
   <si>
-    <t>3F1-A01</t>
+    <t>301-HH02-01</t>
   </si>
   <si>
     <t>3F1</t>
@@ -199,43 +199,109 @@
     <t>整柜机柜</t>
   </si>
   <si>
+    <t>301-HH02-02</t>
+  </si>
+  <si>
+    <t>301-HH02-03</t>
+  </si>
+  <si>
+    <t>301-HH02-04</t>
+  </si>
+  <si>
+    <t>301-HH02-05</t>
+  </si>
+  <si>
     <t>已使用</t>
   </si>
   <si>
-    <t>国际互联</t>
-  </si>
-  <si>
-    <t>vpn,外网</t>
-  </si>
-  <si>
-    <t>3F1-A02</t>
+    <t>狐狸</t>
+  </si>
+  <si>
+    <t>301-HH02-06</t>
   </si>
   <si>
     <t>预分配</t>
   </si>
   <si>
-    <t>K-Office互联</t>
-  </si>
-  <si>
-    <t>日期格式处理</t>
-  </si>
-  <si>
-    <t>=TEXT(F3,"yyyy-mm-dd")</t>
-  </si>
-  <si>
-    <t>必须转成文本格式</t>
-  </si>
-  <si>
-    <t>设备U位处理</t>
-  </si>
-  <si>
-    <t>用|分割，多个U位填写始末U位即可</t>
+    <t>孙悟空</t>
+  </si>
+  <si>
+    <t>301-HH02-07</t>
+  </si>
+  <si>
+    <t>301-HH02-08</t>
+  </si>
+  <si>
+    <t>301-HH02-09</t>
+  </si>
+  <si>
+    <t>301-HH02-10</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>详细内容</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>注意事项</t>
   </si>
   <si>
     <t>表头带红色备注的必填</t>
   </si>
   <si>
     <t>第1行，第2行表头不能删除</t>
+  </si>
+  <si>
+    <t>系统创建的机柜名称，唯一标识</t>
+  </si>
+  <si>
+    <t>可不写，一般与机柜名称一致</t>
+  </si>
+  <si>
+    <t>定义机房模块所在，必须提前定义好</t>
+  </si>
+  <si>
+    <t>整柜机柜、散U机柜</t>
+  </si>
+  <si>
+    <t>可以不填写，留空</t>
+  </si>
+  <si>
+    <t>未分配</t>
+  </si>
+  <si>
+    <t>已使用、预分配</t>
+  </si>
+  <si>
+    <t>按定义类别填写</t>
+  </si>
+  <si>
+    <t>无客户可留空，如有客户名称，系统中没有客户则会按默认客户类型新建</t>
+  </si>
+  <si>
+    <t>留空的话，机柜不会被启用，需要在系统中进行二次分配</t>
+  </si>
+  <si>
+    <t>支持自定义</t>
+  </si>
+  <si>
+    <t>整数类型</t>
+  </si>
+  <si>
+    <t>整数类型，必须是双数</t>
+  </si>
+  <si>
+    <t>支持自定义，多个标签请使用英文逗号分割</t>
+  </si>
+  <si>
+    <t>VPN,20A机柜</t>
   </si>
 </sst>
 </file>
@@ -243,15 +309,113 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,7 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,14 +444,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,76 +466,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -379,28 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -412,7 +485,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,31 +494,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,13 +620,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,139 +674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,38 +730,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,7 +766,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,8 +789,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,17 +824,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -747,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,154 +844,185 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,155 +1344,335 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="19.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.44166666666667" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="12.775" customWidth="1"/>
-    <col min="8" max="8" width="12.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="8.10833333333333" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="34.775" customWidth="1"/>
-    <col min="12" max="12" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.7818181818182" customWidth="1"/>
+    <col min="2" max="2" width="9.55454545454545" customWidth="1"/>
+    <col min="3" max="3" width="9.44545454545455" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.55454545454545" customWidth="1"/>
+    <col min="7" max="8" width="8.55454545454545" customWidth="1"/>
+    <col min="9" max="9" width="9.55454545454545" customWidth="1"/>
+    <col min="10" max="10" width="9.10909090909091" customWidth="1"/>
+    <col min="11" max="11" width="34.7818181818182" customWidth="1"/>
+    <col min="12" max="12" width="18.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14">
+        <v>47</v>
+      </c>
+      <c r="H3" s="14">
+        <v>30</v>
+      </c>
+      <c r="I3" s="14">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14">
+        <v>47</v>
+      </c>
+      <c r="H4" s="14">
+        <v>30</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14">
+        <v>47</v>
+      </c>
+      <c r="H5" s="14">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14">
+        <v>10</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14">
+        <v>47</v>
+      </c>
+      <c r="H6" s="14">
+        <v>30</v>
+      </c>
+      <c r="I6" s="14">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="14">
+        <v>47</v>
+      </c>
+      <c r="H7" s="14">
+        <v>30</v>
+      </c>
+      <c r="I7" s="14">
+        <v>10</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="14">
+        <v>47</v>
+      </c>
+      <c r="H8" s="14">
+        <v>30</v>
+      </c>
+      <c r="I8" s="14">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14">
+        <v>47</v>
+      </c>
+      <c r="H9" s="14">
+        <v>30</v>
+      </c>
+      <c r="I9" s="14">
+        <v>10</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14">
+        <v>47</v>
+      </c>
+      <c r="H10" s="14">
+        <v>30</v>
+      </c>
+      <c r="I10" s="14">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
         <v>45</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H11" s="14">
         <v>30</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I11" s="14">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14">
         <v>47</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H12" s="14">
         <v>30</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I12" s="14">
         <v>10</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="3"/>
+      <c r="J12" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -1390,49 +1686,210 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="3.89090909090909" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="72.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="56.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>35</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="10">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
